--- a/EV_sales_and_Battery_capacity.xlsx
+++ b/EV_sales_and_Battery_capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\V2G-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadvi\Documents\GitHub\V2G-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E73C79A-7F78-4893-BD30-1BF3AFBB8AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D63B0-8C50-4199-A9C2-F34B99C6680B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4440" yWindow="1260" windowWidth="24045" windowHeight="13815" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEV Sales Final 2019" sheetId="20" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="163" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1255,6 +1255,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1282,11 +1287,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="25" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="27" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="28" borderId="18" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8767,10 +8768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S69"/>
+  <dimension ref="B1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48:AB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8791,20 +8792,20 @@
   <sheetData>
     <row r="1" spans="2:13" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -8914,7 +8915,7 @@
       <c r="K5" s="2">
         <v>14715</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="37">
         <v>12365</v>
       </c>
       <c r="M5" s="15">
@@ -9187,7 +9188,7 @@
       <c r="K12" s="2">
         <v>25745</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="36">
         <v>15090</v>
       </c>
       <c r="M12" s="15">
@@ -9850,7 +9851,7 @@
       <c r="K29" s="2">
         <v>26100</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="34">
         <v>19425</v>
       </c>
       <c r="M29" s="15">
@@ -10162,7 +10163,7 @@
       <c r="K37" s="2">
         <v>18019</v>
       </c>
-      <c r="L37" s="44">
+      <c r="L37" s="35">
         <v>16313</v>
       </c>
       <c r="M37" s="15">
@@ -10474,7 +10475,7 @@
       <c r="K45" s="2">
         <v>139782</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45" s="33">
         <v>154840</v>
       </c>
       <c r="M45" s="15">
@@ -10602,7 +10603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>26</v>
       </c>
@@ -10649,8 +10650,35 @@
       <c r="S49" s="1">
         <v>83</v>
       </c>
+      <c r="U49" s="1">
+        <v>296392</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1444097</v>
+      </c>
+      <c r="W49" s="1">
+        <f>U49/V49</f>
+        <v>0.20524383057370799</v>
+      </c>
+      <c r="X49" s="1">
+        <v>745806</v>
+      </c>
+      <c r="Y49" s="1">
+        <f>U49/X49</f>
+        <v>0.39741165933231964</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>10989</v>
+      </c>
+      <c r="AA49" s="1">
+        <f>Y49*Z49</f>
+        <v>4367.1567244028602</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>4367</v>
+      </c>
     </row>
-    <row r="50" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>58</v>
       </c>
@@ -10694,8 +10722,35 @@
       <c r="S50" s="1">
         <v>75</v>
       </c>
+      <c r="U50" s="1">
+        <v>87033</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1444097</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" ref="W50:W53" si="1">U50/V50</f>
+        <v>6.0268112183599856E-2</v>
+      </c>
+      <c r="X50" s="1">
+        <v>745806</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" ref="Y50:Y53" si="2">U50/X50</f>
+        <v>0.11669656720380367</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>10989</v>
+      </c>
+      <c r="AA50" s="1">
+        <f t="shared" ref="AA50:AA53" si="3">Y50*Z50</f>
+        <v>1282.3785770025986</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>1282</v>
+      </c>
     </row>
-    <row r="51" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>59</v>
       </c>
@@ -10739,8 +10794,36 @@
       <c r="S51" s="1">
         <v>66</v>
       </c>
+      <c r="T51" s="15"/>
+      <c r="U51" s="1">
+        <v>58208</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1444097</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="1"/>
+        <v>4.030754166790735E-2</v>
+      </c>
+      <c r="X51" s="1">
+        <v>745806</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8047106083887763E-2</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>10989</v>
+      </c>
+      <c r="AA51" s="1">
+        <f t="shared" si="3"/>
+        <v>857.65964875584268</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>858</v>
+      </c>
     </row>
-    <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>60</v>
       </c>
@@ -10784,8 +10867,35 @@
       <c r="S52" s="1">
         <v>90</v>
       </c>
+      <c r="U52" s="47">
+        <v>162285</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1444097</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11237818512191355</v>
+      </c>
+      <c r="X52" s="1">
+        <v>745806</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21759680131294198</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>10989</v>
+      </c>
+      <c r="AA52" s="1">
+        <f t="shared" si="3"/>
+        <v>2391.1712496279197</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>2391</v>
+      </c>
     </row>
-    <row r="53" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>61</v>
       </c>
@@ -10829,8 +10939,35 @@
       <c r="S53" s="1">
         <v>40</v>
       </c>
+      <c r="U53" s="47">
+        <v>141888</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1444097</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8253787661078174E-2</v>
+      </c>
+      <c r="X53" s="1">
+        <v>745806</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19024786606704694</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>10989</v>
+      </c>
+      <c r="AA53" s="1">
+        <f t="shared" si="3"/>
+        <v>2090.6338002107786</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>2091</v>
+      </c>
     </row>
-    <row r="54" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
@@ -10868,8 +11005,16 @@
         <f t="shared" si="0"/>
         <v>2987</v>
       </c>
+      <c r="U54" s="1">
+        <f>SUM(U49:U53)</f>
+        <v>745806</v>
+      </c>
+      <c r="W54" s="1">
+        <f>SUM(W49:W53)</f>
+        <v>0.51645145720820684</v>
+      </c>
     </row>
-    <row r="55" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>63</v>
       </c>
@@ -10908,7 +11053,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -10947,7 +11092,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="57" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>65</v>
       </c>
@@ -10986,7 +11131,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>66</v>
       </c>
@@ -11025,7 +11170,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="59" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="20" t="s">
         <v>1</v>
       </c>
@@ -11035,118 +11180,118 @@
         <v>17763</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" ref="E59:M59" si="1">SUM(E4:E58)</f>
+        <f t="shared" ref="E59:M59" si="4">SUM(E4:E58)</f>
         <v>53171</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>97102</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>118882</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>114023</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>159616</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>195581</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>361315</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>326644</v>
       </c>
       <c r="M59" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1444097</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="Q60" s="32"/>
       <c r="S60" s="32"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="37" t="s">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B61" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="2:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="38" t="s">
+    <row r="62" spans="2:28" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B63" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="2:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="40" t="s">
+    <row r="64" spans="2:28" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
       <c r="K65" s="25"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
@@ -11230,55 +11375,55 @@
   <sheetData>
     <row r="1" spans="2:57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:57" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
     </row>
     <row r="3" spans="2:57" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
